--- a/input data/_2019/Графики дежурств/19.04.xlsx
+++ b/input data/_2019/Графики дежурств/19.04.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihail\PycharmProjects\Work plan generator\input data\_2019\Графики дежурств\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="6360" windowWidth="28860" windowHeight="6420"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$AH$35</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -168,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,21 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,6 +751,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1289,6 +1294,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1337,7 +1345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1369,9 +1377,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1403,6 +1412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1578,17 +1588,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO27" sqref="AO27"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
@@ -1602,33 +1612,33 @@
     <col min="39" max="39" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21.75" thickBot="1">
-      <c r="C1" s="71" t="s">
+    <row r="1" spans="1:39" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="70">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="65">
         <v>175</v>
       </c>
-      <c r="X1" s="70"/>
+      <c r="X1" s="65"/>
       <c r="Y1" s="25" t="s">
         <v>36</v>
       </c>
@@ -1644,9 +1654,9 @@
       <c r="AI1" s="45"/>
       <c r="AJ1" s="45"/>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68"/>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="27">
         <v>1</v>
       </c>
@@ -1737,29 +1747,29 @@
       <c r="AF2" s="48">
         <v>30</v>
       </c>
-      <c r="AG2" s="62" t="s">
+      <c r="AG2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="72" t="s">
+      <c r="AH2" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="61" t="s">
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="61" t="s">
+      <c r="AL2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="61" t="s">
+      <c r="AM2" s="69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="69"/>
+    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1850,19 +1860,19 @@
       <c r="AF3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="65"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="73"/>
       <c r="AI3" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AJ3" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
     </row>
-    <row r="4" spans="1:39" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="13" t="s">
         <v>9</v>
@@ -1995,7 +2005,7 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39" ht="15.75" thickTop="1">
+    <row r="5" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>1</v>
       </c>
@@ -2113,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15.75" thickBot="1">
+    <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>10</v>
@@ -2356,7 +2366,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" ht="15.75" thickTop="1">
+    <row r="8" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -2463,7 +2473,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <v>4</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>5</v>
       </c>
@@ -2681,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15.75" thickBot="1">
+    <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>6</v>
       </c>
@@ -2792,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="13" t="s">
         <v>12</v>
@@ -2928,7 +2938,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" ht="15.75" thickTop="1">
+    <row r="13" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
         <v>7</v>
       </c>
@@ -3035,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>8</v>
       </c>
@@ -3146,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15.75" thickBot="1">
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>9</v>
       </c>
@@ -3261,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="13" t="s">
         <v>11</v>
@@ -3397,7 +3407,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="15.75" thickTop="1">
+    <row r="17" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>10</v>
       </c>
@@ -3506,7 +3516,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>11</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15.75" thickBot="1">
+    <row r="19" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>12</v>
       </c>
@@ -3730,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="13" t="s">
         <v>37</v>
@@ -3866,7 +3876,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="15.75" thickTop="1">
+    <row r="21" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
         <v>13</v>
       </c>
@@ -3980,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>14</v>
       </c>
@@ -4098,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15.75" thickBot="1">
+    <row r="23" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53">
         <v>15</v>
       </c>
@@ -4205,7 +4215,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="17.25" hidden="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:39" ht="17.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="15" t="s">
         <v>26</v>
@@ -4336,7 +4346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="17.25" hidden="1" thickTop="1" thickBot="1">
+    <row r="25" spans="1:39" ht="17.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
         <v>41</v>
@@ -4464,7 +4474,7 @@
       <c r="AG25" s="12"/>
       <c r="AH25" s="29"/>
     </row>
-    <row r="26" spans="1:39" ht="17.25" hidden="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:39" ht="17.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="15" t="s">
         <v>42</v>
@@ -4592,7 +4602,7 @@
       <c r="AG26" s="12"/>
       <c r="AH26" s="29"/>
     </row>
-    <row r="27" spans="1:39" ht="17.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:39" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="15" t="s">
         <v>28</v>
@@ -4720,7 +4730,7 @@
       <c r="AG27" s="12"/>
       <c r="AH27" s="29"/>
     </row>
-    <row r="28" spans="1:39" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>27</v>
@@ -4848,7 +4858,7 @@
       <c r="AG28" s="40"/>
       <c r="AH28" s="41"/>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -4881,7 +4891,7 @@
       <c r="AE29" s="17"/>
       <c r="AF29" s="17"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23"/>
       <c r="D31" s="22" t="s">
@@ -4892,10 +4902,10 @@
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:39" hidden="1">
+    <row r="32" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="2:8" hidden="1">
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="46"/>
       <c r="D33" s="22" t="s">
@@ -4907,7 +4917,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="24" t="s">
         <v>33</v>
       </c>
@@ -4918,7 +4928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1">
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C37" s="24" t="s">
         <v>38</v>
       </c>
@@ -4931,16 +4941,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AF4 C7:AF7 C12:AF12 C16:AF16 C20:AF20">
     <cfRule type="cellIs" dxfId="72" priority="168" operator="lessThan">
@@ -5267,24 +5277,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
